--- a/src/main/resources/excel/理论课培养计划导入模板.xlsx
+++ b/src/main/resources/excel/理论课培养计划导入模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>课程设置与学时安排（理论课）</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -232,7 +232,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>8周</t>
+    <t>长7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -592,6 +596,66 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,63 +703,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -998,196 +1005,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="17.399999999999999">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="31"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="51"/>
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="36.6" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="34"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="54"/>
     </row>
     <row r="3" spans="1:28" ht="15.6">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="56"/>
+      <c r="E3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="52" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="60" t="s">
+      <c r="S3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="55" t="s">
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="42" t="s">
+      <c r="AB3" s="62" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="43" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="P4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="53"/>
-      <c r="S4" s="60" t="s">
+      <c r="R4" s="35"/>
+      <c r="S4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="61"/>
-      <c r="U4" s="62" t="s">
+      <c r="T4" s="46"/>
+      <c r="U4" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="61"/>
-      <c r="W4" s="62" t="s">
+      <c r="V4" s="46"/>
+      <c r="W4" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="62" t="s">
+      <c r="X4" s="46"/>
+      <c r="Y4" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="42"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="62"/>
     </row>
     <row r="5" spans="1:28" ht="25.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="53"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="35"/>
       <c r="S5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1207,33 +1214,33 @@
         <v>50</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="42"/>
+        <v>53</v>
+      </c>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="62"/>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="54"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="36"/>
       <c r="S6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1252,14 +1259,14 @@
       <c r="X6" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="28" t="s">
-        <v>52</v>
+      <c r="Y6" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="Z6" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="42"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="62"/>
     </row>
     <row r="7" spans="1:28" ht="75" customHeight="1">
       <c r="A7" s="9" t="s">
@@ -1271,7 +1278,7 @@
       <c r="C7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="30" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -1331,7 +1338,7 @@
       <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="19" t="s">
         <v>40</v>
       </c>
@@ -1383,17 +1390,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="AA3:AA6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="S3:Z3"/>
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="A2:AB2"/>
     <mergeCell ref="A3:B6"/>
@@ -1410,6 +1406,17 @@
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="N4:N6"/>
     <mergeCell ref="O4:O6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="AA3:AA6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="S3:Z3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
